--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Pf4</t>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,61 +519,371 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>71.9307924241016</v>
+        <v>26.70522333333333</v>
       </c>
       <c r="H2">
-        <v>71.9307924241016</v>
+        <v>80.11566999999999</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2696387810903721</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2696387810903721</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.49441930100644</v>
+        <v>1.863797</v>
       </c>
       <c r="N2">
-        <v>1.49441930100644</v>
+        <v>5.591391</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.5455000708290748</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.5455000708290748</v>
       </c>
       <c r="Q2">
-        <v>107.4947645352652</v>
+        <v>49.77311513299667</v>
       </c>
       <c r="R2">
-        <v>107.4947645352652</v>
+        <v>447.9580361969699</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.1470879741830634</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.1470879741830634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>26.70522333333333</v>
+      </c>
+      <c r="H3">
+        <v>80.11566999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.2696387810903721</v>
+      </c>
+      <c r="J3">
+        <v>0.2696387810903721</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.552879</v>
+      </c>
+      <c r="N3">
+        <v>4.658637000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.4544999291709252</v>
+      </c>
+      <c r="P3">
+        <v>0.4544999291709252</v>
+      </c>
+      <c r="Q3">
+        <v>41.46998050464334</v>
+      </c>
+      <c r="R3">
+        <v>373.22982454179</v>
+      </c>
+      <c r="S3">
+        <v>0.1225508069073087</v>
+      </c>
+      <c r="T3">
+        <v>0.1225508069073087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>72.30024833333333</v>
+      </c>
+      <c r="H4">
+        <v>216.900745</v>
+      </c>
+      <c r="I4">
+        <v>0.7300051600316594</v>
+      </c>
+      <c r="J4">
+        <v>0.7300051600316595</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>1.863797</v>
+      </c>
+      <c r="N4">
+        <v>5.591391</v>
+      </c>
+      <c r="O4">
+        <v>0.5455000708290748</v>
+      </c>
+      <c r="P4">
+        <v>0.5455000708290748</v>
+      </c>
+      <c r="Q4">
+        <v>134.7529859429216</v>
+      </c>
+      <c r="R4">
+        <v>1212.776873486295</v>
+      </c>
+      <c r="S4">
+        <v>0.3982178665028603</v>
+      </c>
+      <c r="T4">
+        <v>0.3982178665028603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>72.30024833333333</v>
+      </c>
+      <c r="H5">
+        <v>216.900745</v>
+      </c>
+      <c r="I5">
+        <v>0.7300051600316594</v>
+      </c>
+      <c r="J5">
+        <v>0.7300051600316595</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.552879</v>
+      </c>
+      <c r="N5">
+        <v>4.658637000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.4544999291709252</v>
+      </c>
+      <c r="P5">
+        <v>0.4544999291709252</v>
+      </c>
+      <c r="Q5">
+        <v>112.2735373316183</v>
+      </c>
+      <c r="R5">
+        <v>1010.461835984565</v>
+      </c>
+      <c r="S5">
+        <v>0.3317872935287992</v>
+      </c>
+      <c r="T5">
+        <v>0.3317872935287992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.03526433333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.105793</v>
+      </c>
+      <c r="I6">
+        <v>0.000356058877968489</v>
+      </c>
+      <c r="J6">
+        <v>0.0003560588779684891</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>1.863797</v>
+      </c>
+      <c r="N6">
+        <v>5.591391</v>
+      </c>
+      <c r="O6">
+        <v>0.5455000708290748</v>
+      </c>
+      <c r="P6">
+        <v>0.5455000708290748</v>
+      </c>
+      <c r="Q6">
+        <v>0.06572555867366667</v>
+      </c>
+      <c r="R6">
+        <v>0.5915300280629999</v>
+      </c>
+      <c r="S6">
+        <v>0.0001942301431511317</v>
+      </c>
+      <c r="T6">
+        <v>0.0001942301431511317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.03526433333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.105793</v>
+      </c>
+      <c r="I7">
+        <v>0.000356058877968489</v>
+      </c>
+      <c r="J7">
+        <v>0.0003560588779684891</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.552879</v>
+      </c>
+      <c r="N7">
+        <v>4.658637000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.4544999291709252</v>
+      </c>
+      <c r="P7">
+        <v>0.4544999291709252</v>
+      </c>
+      <c r="Q7">
+        <v>0.05476124268233334</v>
+      </c>
+      <c r="R7">
+        <v>0.492851184141</v>
+      </c>
+      <c r="S7">
+        <v>0.0001618287348173574</v>
+      </c>
+      <c r="T7">
+        <v>0.0001618287348173574</v>
       </c>
     </row>
   </sheetData>
